--- a/data_analysis.xlsx
+++ b/data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Heart Failure Prediction ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E437DA15-423B-492C-A56D-F809AB10D690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF45295E-BE7E-4B60-8C16-6CFF89D0BA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,30 @@
     <definedName name="_xlchart.v1.0" hidden="1">'Raw Data'!$B$10:$AG$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Raw Data'!$B$11:$AG$11</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'Raw Data'!$B$9:$AG$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Raw Data'!$B$10:$AG$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Raw Data'!$B$11:$AG$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Raw Data'!$B$12:$AG$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Raw Data'!$B$13:$AG$13</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Raw Data'!$B$3:$AG$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Raw Data'!$B$4:$AG$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Raw Data'!$B$5:$AG$5</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Raw Data'!$B$6:$AG$6</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Raw Data'!$B$7:$AG$7</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Raw Data'!$B$12:$AG$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Raw Data'!$B$8:$AG$8</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Raw Data'!$B$9:$AG$9</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Raw Data'!$B$10:$AG$10</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Raw Data'!$B$11:$AG$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Raw Data'!$B$12:$AG$12</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Raw Data'!$B$13:$AG$13</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Raw Data'!$B$3:$AG$3</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Raw Data'!$B$4:$AG$4</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Raw Data'!$B$5:$AG$5</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Raw Data'!$B$6:$AG$6</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Raw Data'!$B$13:$AG$13</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Raw Data'!$B$7:$AG$7</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Raw Data'!$B$8:$AG$8</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Raw Data'!$B$9:$AG$9</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Raw Data'!$B$3:$AG$3</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Raw Data'!$B$4:$AG$4</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Raw Data'!$B$5:$AG$5</definedName>
@@ -51,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Trial #1</t>
   </si>
@@ -215,9 +237,6 @@
     <t>10 Epochs</t>
   </si>
   <si>
-    <t>Paired Two-Samples T-Test One Tailed (Dependent Sample T-Test)</t>
-  </si>
-  <si>
     <t>95% Confidence Level (</t>
   </si>
   <si>
@@ -228,6 +247,12 @@
   </si>
   <si>
     <t>POOLED SD</t>
+  </si>
+  <si>
+    <t>Paired Two-Samples T-Test Positive One Tailed (Dependent Sample T-Test)</t>
+  </si>
+  <si>
+    <t>Residual:</t>
   </si>
 </sst>
 </file>
@@ -301,12 +326,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -315,6 +334,12 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -509,7 +534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{967FECE2-B111-49C1-B298-2288D5DEF31E}" type="CELLRANGE">
+                    <a:fld id="{EEBD12A2-9652-46EE-84D2-49C9787262EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -549,7 +574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AF6D2E2-4560-4357-B15E-D5765CED71B8}" type="CELLRANGE">
+                    <a:fld id="{A4A25778-1EDE-4612-BFA8-9AF2FE276597}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -589,7 +614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14BF4C5F-2F71-443E-87DC-A2748C0E7BE1}" type="CELLRANGE">
+                    <a:fld id="{DF3AF32B-CBD4-47AE-ADAF-595FB6955CE5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -629,7 +654,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E88503B2-1D3C-457C-A331-3ED5C018EAE3}" type="CELLRANGE">
+                    <a:fld id="{3377B232-7590-4031-BB13-05D468018FAF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -663,7 +688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3525399-D09B-4B59-956F-015E39C87D43}" type="CELLRANGE">
+                    <a:fld id="{64881006-3513-4D63-B26D-408A4188B435}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -698,7 +723,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF494944-E8DA-4474-ADBA-2FEAC22BC9F9}" type="CELLRANGE">
+                    <a:fld id="{6C1A04BF-AF82-436B-82EF-C0BFC7298A2D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -733,7 +758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84181566-0C7C-4547-9D32-A4A63C1FD348}" type="CELLRANGE">
+                    <a:fld id="{26D1FF64-5435-4C28-BDD0-B5AC684E4BDF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -768,7 +793,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0A9245E-5F86-48BF-9005-3362AB296790}" type="CELLRANGE">
+                    <a:fld id="{1634D6C2-9BA5-4748-86DE-EB06BF85A378}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -803,7 +828,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAD9486E-DE9A-4765-A07F-07EA2E24C84C}" type="CELLRANGE">
+                    <a:fld id="{B878D3DE-B191-4181-94E5-3F9E7BBEA7FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -838,7 +863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2758942A-6910-4B7D-BDCF-ED09582118A6}" type="CELLRANGE">
+                    <a:fld id="{5981C556-387F-4CEE-B5F6-97810CF7AE9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -873,7 +898,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57D83355-F118-43F5-ABA2-B7E5CD28A7E1}" type="CELLRANGE">
+                    <a:fld id="{7E87BB51-0D93-48D0-B016-9A1CD20F7AB8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1474,12 +1499,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1537,13 +1559,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>Amount of Epochs (#) vs. Testing Accuracy (%) Scatter Plot w/ Linear Regression</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" b="1">
               <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -1579,7 +1605,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2779017376926246E-2"/>
+          <c:y val="0.13832169841180678"/>
+          <c:w val="0.88092902321636024"/>
+          <c:h val="0.73093327623484972"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -5500,7 +5536,7 @@
           </c:trendline>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="50000"/>
@@ -5516,8 +5552,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10498777506112469"/>
-                  <c:y val="0.35957700967972683"/>
+                  <c:x val="-6.1670569867291178E-2"/>
+                  <c:y val="0.37434606033936152"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5533,16 +5569,16 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
                   <a:endParaRPr lang="en-US"/>
@@ -5667,7 +5703,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5680,14 +5716,23 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Amount of Epochs</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t> (#)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1400" b="1">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5704,7 +5749,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5742,16 +5787,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -5783,6 +5828,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5803,7 +5862,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Testing Accuracy (%)</a:t>
                 </a:r>
               </a:p>
@@ -5854,16 +5916,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -5876,7 +5938,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -5889,12 +5953,4417 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Amount of Epochs (#) vs. Testing Accuracy Residual (%)  Scatter Plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8946135831381737E-2"/>
+          <c:y val="0.16201369990504544"/>
+          <c:w val="0.88432474629195945"/>
+          <c:h val="0.72189549277808507"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-28.071391304347898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.035643478260909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54358260869560127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2532434782607993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2455130434781978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1508260869564992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9691826086956041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2440608695652031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51893913043468842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7496608695653038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.4747826086956906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.2546956521739077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.529573913043393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3479304347825973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6228086956520968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5281217391303983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3464782608695032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.922121739130489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1037652173913983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.8288869565218135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4670521739131033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.7356521739130955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$4:$Y$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-15.571391304347898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.579121739130507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13.586852173913101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.8771913043479032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.7979652173913934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.2622173913044037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.7264695652173998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.3646347826087037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.3723652173914047</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.0105304347826944</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.6486956521738989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$5:$Y$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.4409565217391958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4426173913042959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9783652173912998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9706347826085988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5063826086956027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2377826086955963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0561391304347012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3310173913043002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0624173913042938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2061826086956984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.9313043478260852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.3633913043478003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1600086956520954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9783652173912998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8836782608695017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4194260869565056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3247391304346934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5996173913043066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8744956521739056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6928521739129962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42425217391300407</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.8443478260869881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-12.853999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.231295652174005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.6085913043478968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4582608695702675E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35420869565210467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9769130434781914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2517913043478046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61362608695650067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51893913043468842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8366173913044008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.105217391304393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-13.397478260869597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.774773913043504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6303304347826924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.63806086956530805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.7327478260869924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.82743478260870518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70831304347819923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0147826086895293E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.56801739130440865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2931391304347954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.3878260869565935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.9720869565217072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.246965217391292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6957565217390993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0575913043477954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3324695652173091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6073478260868939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4257043478260982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1571043478260918</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4539130434803269E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.662704347826093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.4747826086956906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$10:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-19.9192173913044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.492165217391403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.1520695652173956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.268495652173911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.18926956521740124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.28395652173919927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16483478260860807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61362608695650067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4539130434803269E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2931391304347954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.5617391304347876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$11:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-15.571391304347898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.6008608695653024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2609739130434008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0575913043477954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.136817391304305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9551739130433958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.143095652173912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4179739130433973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1493739130433909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5112086956521011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.75739130434789104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$12:$Y$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.4409565217391958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7034869565217008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0653217391303968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4271565217390929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1585565217391007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5203913043477968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2517913043478046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.47333043478269587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6549739130435057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.3800956521739067</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.105217391304393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$13:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.9844347826087017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.529573913043393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2392347826086052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.492373913043394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.767252173913008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4986521739130012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7735304347826002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9614521739130026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6928521739129962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5112086956521011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.75739130434789104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$14:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-16.114869565217397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.4269478260870088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1738086956521983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7250173913044051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8197043478260895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.4578695652174076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.5525565217391915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.6472434782609042</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.4593217391305018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.2713999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.9095652173913891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-12.3105217391305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.1660782608696039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1740173913043037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1662869565217022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7889913043478032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1508260869564992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9691826086956041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3310173913043002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1493739130433909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.11922608695660131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.3878260869565935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-16.658347826087002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.99216521739140262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7174956521739091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9706347826085988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1585565217391007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5203913043477968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2517913043478046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0168086956522018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6549739130435057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.9235739130434979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.6486956521738989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$17:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.6242608695652052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.246965217391292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6957565217390993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1445478260868924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0498608695652081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2377826086955963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0561391304347012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3310173913043002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6058956521738992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.662704347826093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.9313043478260852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$18:$Y$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-13.397478260869597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.8834695652174034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6303304347826924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5358521739129998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0716000000000037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5203913043477968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2517913043478046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0147826086895293E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6549739130435057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8366173913044008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.6486956521738989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$19:$Y$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-4.7018260869566006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7252260869564964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7174956521739091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5358521739129998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4411652173913012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3464782608695032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2517913043478046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.47333043478269587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6549739130435057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.9235739130434979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.1921739130434901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$20:$Y$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-21.006173913043497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.818252173913109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-25.543373913043496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-22.920669565217402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13.776226086956598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.9796086956522032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.7264695652173998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0147826086895293E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6058956521738992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.11922608695660131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.75739130434789104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$21:$Y$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-3.614869565217397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.507834782608597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.587060869565207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.492373913043394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.680295652173911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4116956521739041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6865739130434036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5049304347825938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3232869565216987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5112086956521011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.3008695652173969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$22:$Y$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-11.767043478260902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.3399913043479046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1740173913043037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9923739130433944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6150782608695096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9769130434781914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70831304347819923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0168086956522018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.7419304347827023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.5540086956522003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.8226086956521925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$23:$Y$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-8.5061739130434972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.253034782608708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0868521739131012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6228086956520968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6150782608695096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9769130434781914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7952695652173105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1571043478260918</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.56801739130440865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2061826086956984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.4747826086956906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$24:$Y$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-18.832260869565296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.035643478260909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1738086956521983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7967217391303905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2455130434781978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1508260869564992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9691826086956041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2440608695652031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4539130434803269E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7496608695653038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.4747826086956906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$25:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.7112173913043023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4426173913042959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4348869565217086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7097652173912934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9846434782608071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80299999999999727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16483478260860807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0168086956522018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2854086956522082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.5540086956522003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.6486956521738989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$26:$Y$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-3.0713913043478982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9860956521739013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4348869565217086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8836782608695017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2455130434781978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4334347826086002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7952695652173105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5602869565218072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.8288869565218135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.0105304347826944</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.7356521739130955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$27:$Y$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.689478260869507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.964356521739091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.413147826086899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.774982608695595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0498608695652081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8682173913042988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5996173913043066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3310173913043002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0624173913042938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.662704347826093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.3878260869565935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$28:$Y$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-13.940956521739196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.405208695652206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.4129391304348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4582608695702675E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2455130434781978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2377826086955963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5126608695652095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2440608695652031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0624173913042938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2061826086956984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.9313043478260852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$29:$Y$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0807826086955998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9860956521739013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9783652173912998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3401999999999958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2455130434781978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5203913043477968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2517913043478046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0168086956522018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6549739130435057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.9235739130434979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.7356521739130955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$30:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-3.614869565217397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0791217391305068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54358260869560127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9923739130433944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4411652173913012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4334347826086002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16483478260860807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.47333043478269587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6549739130435057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4670521739131033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.6486956521738989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$31:$Y$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-18.288782608695698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.970426086956607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1740173913043037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3401999999999958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1585565217391007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1508260869564992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9691826086956041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9614521739130026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6928521739129962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42425217391300407</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.3008695652173969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$32:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.8199130434781949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.246965217391292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6088000000000022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8836782608695017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2455130434781978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9769130434781914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2517913043478046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0168086956522018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.7419304347827023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4670521739131033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.5617391304347876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$33:$Y$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.5279130434782999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7904434782607979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.326191304347802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.774982608695595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5063826086956027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3247391304346934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5126608695652095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2440608695652031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51893913043468842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2061826086956984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.0182608695652959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inferential Statistic Analysis'!$O$34:$Y$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-7.0965271739131026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7054804347826646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5965717391304111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4719934782608135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9038010869564772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4015054347825497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2368456521738551</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9872673913043144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.39818043478264542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2931391304348097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.103179347826142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-03CF-444B-9AEB-96AD8ADBFE2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1580898352"/>
+        <c:axId val="1580895024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1580898352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Amount of Epochs</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> (#)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41290785373139838"/>
+              <c:y val="0.92866075105924806"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln cmpd="dbl">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1580895024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1580895024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="-30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Testing Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1580898352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -6023,6 +10492,11 @@
           </cx:spPr>
         </cx:plotSurface>
         <cx:series layoutId="boxWhisker" uniqueId="{3C32EC64-DAE5-4584-936F-28AE8DCFD23A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>0 Epochs</cx:v>
+            </cx:txData>
+          </cx:tx>
           <cx:spPr>
             <a:ln w="19050">
               <a:solidFill>
@@ -6037,6 +10511,11 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-9434-4495-9D59-BDA0709CA6CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>1 Epoch</cx:v>
+            </cx:txData>
+          </cx:tx>
           <cx:spPr>
             <a:ln w="19050">
               <a:solidFill>
@@ -6051,6 +10530,11 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-9434-4495-9D59-BDA0709CA6CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>2 Epochs</cx:v>
+            </cx:txData>
+          </cx:tx>
           <cx:spPr>
             <a:ln w="19050">
               <a:solidFill>
@@ -6065,6 +10549,18 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-9434-4495-9D59-BDA0709CA6CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>3 Epochs</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="3"/>
           <cx:layoutPr>
             <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -6072,6 +10568,18 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{00000004-9434-4495-9D59-BDA0709CA6CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>4 Epochs</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="4"/>
           <cx:layoutPr>
             <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -6079,6 +10587,18 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{00000005-9434-4495-9D59-BDA0709CA6CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>5 Epochs</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="5"/>
           <cx:layoutPr>
             <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -6086,6 +10606,18 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{00000006-9434-4495-9D59-BDA0709CA6CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>6 Epochs</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="6"/>
           <cx:layoutPr>
             <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -6093,6 +10625,18 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{00000007-9434-4495-9D59-BDA0709CA6CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>7 Epochs</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="7"/>
           <cx:layoutPr>
             <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -6100,6 +10644,18 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{00000008-9434-4495-9D59-BDA0709CA6CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>8 Epochs</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="8"/>
           <cx:layoutPr>
             <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -6107,6 +10663,18 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{00000009-9434-4495-9D59-BDA0709CA6CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>9 Epochs</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="9"/>
           <cx:layoutPr>
             <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -6114,6 +10682,18 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{0000000A-9434-4495-9D59-BDA0709CA6CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>10 Epochs</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="10"/>
           <cx:layoutPr>
             <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -6243,6 +10823,13 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln w="12700">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -6324,6 +10911,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7897,20 +12524,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -7946,8 +13089,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10753725" y="600075"/>
-              <a:ext cx="6210300" cy="3833813"/>
+              <a:off x="10020300" y="314325"/>
+              <a:ext cx="7400925" cy="4386263"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8020,16 +13163,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8049,6 +13192,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6A1B9A-2BF9-405F-A152-DE5B3178B6CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8080,7 +13261,7 @@
     <tableColumn id="7" xr3:uid="{72146179-960D-4E9B-8D48-5523F2684228}" name="Standard Error" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Standard Deviation]]/SQRT(COUNT('Raw Data'!B3:AG3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0D6A3C25-4A6A-4331-BE1A-AA151A844E59}" name="95% Confidence Interval" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="8" xr3:uid="{0D6A3C25-4A6A-4331-BE1A-AA151A844E59}" name="95% Confidence Interval" dataDxfId="2" totalsRowDxfId="1">
       <calculatedColumnFormula>2*Table1[[#This Row],[Standard Error]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8353,7 +13534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -9600,8 +14781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373AC3EC-E24B-45AD-B566-DEC86CE58D07}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10007,7 +15188,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <f>B12-B2</f>
@@ -10020,7 +15201,7 @@
         <v>55.76</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <f>SQRT(((32-1)*F2^2+(32-1)*F12^2)/(32+32-2))</f>
@@ -10033,7 +15214,7 @@
         <v>63.42</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <f>F14/F15</f>
@@ -10105,10 +15286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B52C68D-0684-497F-AF09-E13B6764FC2F}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10116,9 +15297,10 @@
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -10152,8 +15334,44 @@
       <c r="L1">
         <v>10</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>2</v>
+      </c>
+      <c r="R1">
+        <v>3</v>
+      </c>
+      <c r="S1">
+        <v>4</v>
+      </c>
+      <c r="T1">
+        <v>5</v>
+      </c>
+      <c r="U1">
+        <v>6</v>
+      </c>
+      <c r="V1">
+        <v>7</v>
+      </c>
+      <c r="W1">
+        <v>8</v>
+      </c>
+      <c r="X1">
+        <v>9</v>
+      </c>
+      <c r="Y1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10190,8 +15408,52 @@
       <c r="L2">
         <v>82.065217391304301</v>
       </c>
+      <c r="O2">
+        <f>B2-(2.2686*0+62.854)</f>
+        <v>-28.071391304347898</v>
+      </c>
+      <c r="P2">
+        <f>C2-(2.2686*1+62.854)</f>
+        <v>-14.035643478260909</v>
+      </c>
+      <c r="Q2">
+        <f>D2-(2.2686*2+62.854)</f>
+        <v>0.54358260869560127</v>
+      </c>
+      <c r="R2">
+        <f>E2-(2.2686*3+62.854)</f>
+        <v>4.2532434782607993</v>
+      </c>
+      <c r="S2">
+        <f>F2-(2.2686*4+62.854)</f>
+        <v>5.2455130434781978</v>
+      </c>
+      <c r="T2">
+        <f>G2-(2.2686*5+62.854)</f>
+        <v>5.1508260869564992</v>
+      </c>
+      <c r="U2">
+        <f>H2-(2.2686*6+62.854)</f>
+        <v>3.9691826086956041</v>
+      </c>
+      <c r="V2">
+        <f>I2-(2.2686*7+62.854)</f>
+        <v>2.2440608695652031</v>
+      </c>
+      <c r="W2">
+        <f>J2-(2.2686*8+62.854)</f>
+        <v>0.51893913043468842</v>
+      </c>
+      <c r="X2">
+        <f>K2-(2.2686*9+62.854)</f>
+        <v>-1.7496608695653038</v>
+      </c>
+      <c r="Y2">
+        <f>L2-(2.2686*10+62.854)</f>
+        <v>-3.4747826086956906</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10228,8 +15490,52 @@
       <c r="L3">
         <v>78.804347826086897</v>
       </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O34" si="0">B3-(2.2686*0+62.854)</f>
+        <v>7.2546956521739077</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P34" si="1">C3-(2.2686*1+62.854)</f>
+        <v>5.529573913043393</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q34" si="2">D3-(2.2686*2+62.854)</f>
+        <v>4.3479304347825973</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R34" si="3">E3-(2.2686*3+62.854)</f>
+        <v>2.6228086956520968</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S34" si="4">F3-(2.2686*4+62.854)</f>
+        <v>2.5281217391303983</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T34" si="5">G3-(2.2686*5+62.854)</f>
+        <v>1.3464782608695032</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U34" si="6">H3-(2.2686*6+62.854)</f>
+        <v>-0.922121739130489</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V34" si="7">I3-(2.2686*7+62.854)</f>
+        <v>-2.1037652173913983</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W34" si="8">J3-(2.2686*8+62.854)</f>
+        <v>-3.8288869565218135</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X34" si="9">K3-(2.2686*9+62.854)</f>
+        <v>-4.4670521739131033</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y34" si="10">L3-(2.2686*10+62.854)</f>
+        <v>-6.7356521739130955</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10266,8 +15572,52 @@
       <c r="L4">
         <v>79.891304347826093</v>
       </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>-15.571391304347898</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>-14.579121739130507</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>-13.586852173913101</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>-9.8771913043479032</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>-7.7979652173913934</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>-6.2622173913044037</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>-4.7264695652173998</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="7"/>
+        <v>-5.3646347826087037</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="8"/>
+        <v>-4.3723652173914047</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="9"/>
+        <v>-5.0105304347826944</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="10"/>
+        <v>-5.6486956521738989</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10304,8 +15654,52 @@
       <c r="L5">
         <v>82.608695652173907</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>-1.4409565217391958</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>4.4426173913042959</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>5.9783652173912998</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>6.9706347826085988</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>8.5063826086956027</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>6.2377826086955963</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>5.0561391304347012</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="7"/>
+        <v>3.3310173913043002</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="8"/>
+        <v>1.0624173913042938</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="9"/>
+        <v>-1.2061826086956984</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="10"/>
+        <v>-2.9313043478260852</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10342,8 +15736,52 @@
       <c r="L6">
         <v>83.695652173913004</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>2.3633913043478003</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>7.1600086956520954</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>5.9783652173912998</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>5.8836782608695017</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>7.4194260869565056</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>7.3247391304346934</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>5.5996173913043066</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>3.8744956521739056</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="8"/>
+        <v>2.6928521739129962</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="9"/>
+        <v>0.42425217391300407</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="10"/>
+        <v>-1.8443478260869881</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10380,8 +15818,52 @@
       <c r="L7">
         <v>80.434782608695599</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>-12.853999999999999</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>-10.231295652174005</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>-7.6085913043478968</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>-9.4582608695702675E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>0.35420869565210467</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>2.9769130434781914</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>1.2517913043478046</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>0.61362608695650067</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>0.51893913043468842</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="9"/>
+        <v>-2.8366173913044008</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="10"/>
+        <v>-5.105217391304393</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -10418,8 +15900,52 @@
       <c r="L8">
         <v>83.152173913043399</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>-13.397478260869597</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>-10.774773913043504</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>-1.6303304347826924</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>-0.63806086956530805</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>-0.7327478260869924</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>-0.82743478260870518</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>0.70831304347819923</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>7.0147826086895293E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>-0.56801739130440865</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="9"/>
+        <v>-2.2931391304347954</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="10"/>
+        <v>-2.3878260869565935</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10456,8 +15982,52 @@
       <c r="L9">
         <v>82.065217391304301</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>9.9720869565217072</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>8.246965217391292</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>8.6957565217390993</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>8.0575913043477954</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>6.3324695652173091</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>4.6073478260868939</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>3.4257043478260982</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>1.1571043478260918</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>-2.4539130434803269E-2</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="9"/>
+        <v>-0.662704347826093</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="10"/>
+        <v>-3.4747826086956906</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -10494,8 +16064,52 @@
       <c r="L10">
         <v>80.978260869565204</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>-19.9192173913044</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>-13.492165217391403</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>-8.1520695652173956</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>-2.268495652173911</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>-0.18926956521740124</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>-0.28395652173919927</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>0.16483478260860807</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>0.61362608695650067</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>-2.4539130434803269E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="9"/>
+        <v>-2.2931391304347954</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="10"/>
+        <v>-4.5617391304347876</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -10532,8 +16146,52 @@
       <c r="L11">
         <v>84.782608695652101</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>-15.571391304347898</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>-8.6008608695653024</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>3.2609739130434008</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>8.0575913043477954</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>10.136817391304305</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>8.9551739130433958</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>6.143095652173912</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="7"/>
+        <v>4.4179739130433973</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="8"/>
+        <v>2.1493739130433909</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="9"/>
+        <v>1.5112086956521011</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="10"/>
+        <v>-0.75739130434789104</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10570,8 +16228,52 @@
       <c r="L12">
         <v>80.434782608695599</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>-1.4409565217391958</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>7.7034869565217008</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>7.0653217391303968</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>6.4271565217390929</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>4.1585565217391007</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>3.5203913043477968</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>1.2517913043478046</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>-0.47333043478269587</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="8"/>
+        <v>-1.6549739130435057</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="9"/>
+        <v>-3.3800956521739067</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="10"/>
+        <v>-5.105217391304393</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -10608,8 +16310,52 @@
       <c r="L13">
         <v>84.782608695652101</v>
       </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>-1.9844347826087017</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>5.529573913043393</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>9.2392347826086052</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>13.492373913043394</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>11.767252173913008</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>9.4986521739130012</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>7.7735304347826002</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="7"/>
+        <v>4.9614521739130026</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="8"/>
+        <v>2.6928521739129962</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="9"/>
+        <v>1.5112086956521011</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="10"/>
+        <v>-0.75739130434789104</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10646,8 +16392,52 @@
       <c r="L14">
         <v>76.630434782608603</v>
       </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>-16.114869565217397</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>-6.4269478260870088</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>-2.1738086956521983</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>-1.7250173913044051</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>-1.8197043478260895</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>-2.4578695652174076</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>-2.5525565217391915</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="7"/>
+        <v>-2.6472434782609042</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="8"/>
+        <v>-5.4593217391305018</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="9"/>
+        <v>-8.2713999999999999</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="10"/>
+        <v>-8.9095652173913891</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -10684,8 +16474,52 @@
       <c r="L15">
         <v>83.152173913043399</v>
       </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>-12.3105217391305</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>-3.1660782608696039</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>2.1740173913043037</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>3.1662869565217022</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>5.7889913043478032</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>5.1508260869564992</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="6"/>
+        <v>3.9691826086956041</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="7"/>
+        <v>3.3310173913043002</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>2.1493739130433909</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="9"/>
+        <v>-0.11922608695660131</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="10"/>
+        <v>-2.3878260869565935</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -10722,8 +16556,52 @@
       <c r="L16">
         <v>79.891304347826093</v>
       </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>-16.658347826087002</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>-0.99216521739140262</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>2.7174956521739091</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>6.9706347826085988</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>4.1585565217391007</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>3.5203913043477968</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>1.2517913043478046</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="7"/>
+        <v>-1.0168086956522018</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="8"/>
+        <v>-1.6549739130435057</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="9"/>
+        <v>-3.9235739130434979</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="10"/>
+        <v>-5.6486956521738989</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -10760,8 +16638,52 @@
       <c r="L17">
         <v>82.608695652173907</v>
       </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>5.6242608695652052</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>8.246965217391292</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>8.6957565217390993</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>9.1445478260868924</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>9.0498608695652081</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>6.2377826086955963</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>5.0561391304347012</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>3.3310173913043002</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="8"/>
+        <v>1.6058956521738992</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="9"/>
+        <v>-0.662704347826093</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="10"/>
+        <v>-2.9313043478260852</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -10798,8 +16720,52 @@
       <c r="L18">
         <v>79.891304347826093</v>
       </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>-13.397478260869597</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>-5.8834695652174034</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>-1.6303304347826924</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>1.5358521739129998</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>3.0716000000000037</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>3.5203913043477968</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
+        <v>1.2517913043478046</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="7"/>
+        <v>7.0147826086895293E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>-1.6549739130435057</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="9"/>
+        <v>-2.8366173913044008</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="10"/>
+        <v>-5.6486956521738989</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -10836,8 +16802,52 @@
       <c r="L19">
         <v>79.347826086956502</v>
       </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>-4.7018260869566006</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1.7252260869564964</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>2.7174956521739091</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>1.5358521739129998</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>1.4411652173913012</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>1.3464782608695032</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="6"/>
+        <v>1.2517913043478046</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="7"/>
+        <v>-0.47333043478269587</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>-1.6549739130435057</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="9"/>
+        <v>-3.9235739130434979</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="10"/>
+        <v>-6.1921739130434901</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -10874,8 +16884,52 @@
       <c r="L20">
         <v>84.782608695652101</v>
       </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>-21.006173913043497</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>-23.818252173913109</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>-25.543373913043496</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>-22.920669565217402</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>-13.776226086956598</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>-8.9796086956522032</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="6"/>
+        <v>-4.7264695652173998</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="7"/>
+        <v>7.0147826086895293E-2</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="8"/>
+        <v>1.6058956521738992</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="9"/>
+        <v>-0.11922608695660131</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="10"/>
+        <v>-0.75739130434789104</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -10912,8 +16966,52 @@
       <c r="L21">
         <v>84.239130434782595</v>
       </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>-3.614869565217397</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>11.507834782608597</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>13.587060869565207</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>13.492373913043394</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>10.680295652173911</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>8.4116956521739041</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="6"/>
+        <v>6.6865739130434036</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="7"/>
+        <v>5.5049304347825938</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="8"/>
+        <v>4.3232869565216987</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="9"/>
+        <v>1.5112086956521011</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="10"/>
+        <v>-1.3008695652173969</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -10950,8 +17048,52 @@
       <c r="L22">
         <v>77.7173913043478</v>
       </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>-11.767043478260902</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>-5.3399913043479046</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>2.1740173913043037</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0.9923739130433944</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>3.6150782608695096</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>2.9769130434781914</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="6"/>
+        <v>0.70831304347819923</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="7"/>
+        <v>-1.0168086956522018</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="8"/>
+        <v>-2.7419304347827023</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="9"/>
+        <v>-5.5540086956522003</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="10"/>
+        <v>-7.8226086956521925</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -10988,8 +17130,52 @@
       <c r="L23">
         <v>82.065217391304301</v>
       </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>-8.5061739130434972</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>-4.253034782608708</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>-1.0868521739131012</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>2.6228086956520968</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>3.6150782608695096</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>2.9769130434781914</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="6"/>
+        <v>1.7952695652173105</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="7"/>
+        <v>1.1571043478260918</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="8"/>
+        <v>-0.56801739130440865</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="9"/>
+        <v>-1.2061826086956984</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="10"/>
+        <v>-3.4747826086956906</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -11026,8 +17212,52 @@
       <c r="L24">
         <v>82.065217391304301</v>
       </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>-18.832260869565296</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>-14.035643478260909</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>-2.1738086956521983</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>4.7967217391303905</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>5.2455130434781978</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="5"/>
+        <v>5.1508260869564992</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="6"/>
+        <v>3.9691826086956041</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="7"/>
+        <v>2.2440608695652031</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="8"/>
+        <v>-2.4539130434803269E-2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="9"/>
+        <v>-1.7496608695653038</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="10"/>
+        <v>-3.4747826086956906</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -11064,8 +17294,52 @@
       <c r="L25">
         <v>79.891304347826093</v>
       </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>6.7112173913043023</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>4.4426173913042959</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>5.4348869565217086</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>3.7097652173912934</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>1.9846434782608071</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="5"/>
+        <v>0.80299999999999727</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="6"/>
+        <v>0.16483478260860807</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="7"/>
+        <v>-1.0168086956522018</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="8"/>
+        <v>-3.2854086956522082</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="9"/>
+        <v>-5.5540086956522003</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="10"/>
+        <v>-5.6486956521738989</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -11102,8 +17376,52 @@
       <c r="L26">
         <v>78.804347826086897</v>
       </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>-3.0713913043478982</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>4.9860956521739013</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>5.4348869565217086</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>5.8836782608695017</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>5.2455130434781978</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>2.4334347826086002</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="6"/>
+        <v>1.7952695652173105</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>-1.5602869565218072</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="8"/>
+        <v>-3.8288869565218135</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="9"/>
+        <v>-5.0105304347826944</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="10"/>
+        <v>-6.7356521739130955</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -11140,8 +17458,52 @@
       <c r="L27">
         <v>83.152173913043399</v>
       </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>12.689478260869507</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>10.964356521739091</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>11.413147826086899</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>10.774982608695595</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>9.0498608695652081</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>7.8682173913042988</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="6"/>
+        <v>5.5996173913043066</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="7"/>
+        <v>3.3310173913043002</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="8"/>
+        <v>1.0624173913042938</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="9"/>
+        <v>-0.662704347826093</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="10"/>
+        <v>-2.3878260869565935</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -11178,8 +17540,52 @@
       <c r="L28">
         <v>82.608695652173907</v>
       </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>-13.940956521739196</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>-12.405208695652206</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>-11.4129391304348</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>-9.4582608695702675E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>5.2455130434781978</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>6.2377826086955963</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="6"/>
+        <v>4.5126608695652095</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="7"/>
+        <v>2.2440608695652031</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="8"/>
+        <v>1.0624173913042938</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="9"/>
+        <v>-1.2061826086956984</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="10"/>
+        <v>-2.9313043478260852</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -11216,8 +17622,52 @@
       <c r="L29">
         <v>78.804347826086897</v>
       </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>5.0807826086955998</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>4.9860956521739013</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>5.9783652173912998</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>5.3401999999999958</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>5.2455130434781978</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="5"/>
+        <v>3.5203913043477968</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="6"/>
+        <v>1.2517913043478046</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="7"/>
+        <v>-1.0168086956522018</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="8"/>
+        <v>-1.6549739130435057</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="9"/>
+        <v>-3.9235739130434979</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="10"/>
+        <v>-6.7356521739130955</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -11254,8 +17704,52 @@
       <c r="L30">
         <v>79.891304347826093</v>
       </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>-3.614869565217397</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>-2.0791217391305068</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>0.54358260869560127</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0.9923739130433944</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>1.4411652173913012</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="5"/>
+        <v>2.4334347826086002</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="6"/>
+        <v>0.16483478260860807</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="7"/>
+        <v>-0.47333043478269587</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="8"/>
+        <v>-1.6549739130435057</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="9"/>
+        <v>-4.4670521739131033</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="10"/>
+        <v>-5.6486956521738989</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -11292,8 +17786,52 @@
       <c r="L31">
         <v>84.239130434782595</v>
       </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>-18.288782608695698</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>-6.970426086956607</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>2.1740173913043037</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>5.3401999999999958</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>4.1585565217391007</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="5"/>
+        <v>5.1508260869564992</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="6"/>
+        <v>3.9691826086956041</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="7"/>
+        <v>4.9614521739130026</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="8"/>
+        <v>2.6928521739129962</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="9"/>
+        <v>0.42425217391300407</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="10"/>
+        <v>-1.3008695652173969</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -11330,8 +17868,52 @@
       <c r="L32">
         <v>80.978260869565204</v>
       </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>1.8199130434781949</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>8.246965217391292</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>7.6088000000000022</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>5.8836782608695017</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>5.2455130434781978</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="5"/>
+        <v>2.9769130434781914</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="6"/>
+        <v>1.2517913043478046</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="7"/>
+        <v>-1.0168086956522018</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="8"/>
+        <v>-2.7419304347827023</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="9"/>
+        <v>-4.4670521739131033</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="10"/>
+        <v>-4.5617391304347876</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -11368,8 +17950,52 @@
       <c r="L33">
         <v>81.521739130434696</v>
       </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>-2.5279130434782999</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>8.7904434782607979</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>10.326191304347802</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>10.774982608695595</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>8.5063826086956027</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="5"/>
+        <v>7.3247391304346934</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="6"/>
+        <v>4.5126608695652095</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="7"/>
+        <v>2.2440608695652031</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="8"/>
+        <v>0.51893913043468842</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="9"/>
+        <v>-1.2061826086956984</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="10"/>
+        <v>-4.0182608695652959</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -11378,52 +18004,96 @@
         <v>55.757472826086897</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:L34" si="0">AVERAGE(C2:C33)</f>
+        <f t="shared" ref="C34:L34" si="11">AVERAGE(C2:C33)</f>
         <v>63.417119565217341</v>
       </c>
       <c r="D34">
+        <f t="shared" si="11"/>
+        <v>68.987771739130409</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>73.131793478260818</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="11"/>
+        <v>75.832201086956474</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>77.598505434782552</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>78.70244565217385</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>79.721467391304316</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="11"/>
+        <v>80.604619565217362</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="11"/>
+        <v>80.97826086956519</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="11"/>
+        <v>81.43682065217385</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="0"/>
-        <v>68.987771739130409</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>73.131793478260818</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>75.832201086956474</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>77.598505434782552</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>78.70244565217385</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>79.721467391304316</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>80.604619565217362</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>80.97826086956519</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>81.43682065217385</v>
+        <v>-7.0965271739131026</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>-1.7054804347826646</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>1.5965717391304111</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>3.4719934782608135</v>
+      </c>
+      <c r="S34">
+        <f>F34-(2.2686*4+62.854)</f>
+        <v>3.9038010869564772</v>
+      </c>
+      <c r="T34">
+        <f>G34-(2.2686*5+62.854)</f>
+        <v>3.4015054347825497</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="6"/>
+        <v>2.2368456521738551</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="7"/>
+        <v>0.9872673913043144</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="8"/>
+        <v>-0.39818043478264542</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="9"/>
+        <v>-2.2931391304348097</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="10"/>
+        <v>-4.103179347826142</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -11436,7 +18106,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>43</v>
@@ -11472,105 +18142,105 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="2" t="e">
-        <f t="shared" ref="B38:L38" si="1">_xlfn.T.TEST($B$2:$B$33,B2:B33,1,1)</f>
+        <f t="shared" ref="B38:L38" si="12">_xlfn.T.TEST($B$2:$B$33,B2:B33,1,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5.9472116461960301E-10</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>4.1963248877711057E-11</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>2.7092841834222007E-12</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>1.2481756991460114E-13</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>4.928002260973339E-14</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>2.2483544805620569E-14</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>2.8448081805859374E-14</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>1.8142656146418769E-14</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>9.2385172493067181E-15</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6.9908160403447111E-15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" ref="B39:L39" si="2">_xlfn.T.TEST($C$2:$C$33,B2:B33,1,1)</f>
+        <f t="shared" ref="B39:L39" si="13">_xlfn.T.TEST($C$2:$C$33,B2:B33,1,1)</f>
         <v>5.9472116461960301E-10</v>
       </c>
       <c r="C39" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>7.4256645036711553E-9</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.6125901178996374E-10</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.5356525137349702E-11</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.0087808369711849E-11</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>7.3614289764776833E-12</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.3853700371831072E-11</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.0210975146730428E-11</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5.6738653830863118E-12</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4.9015910681938906E-12</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -11579,47 +18249,47 @@
         <v>4.1963248877711057E-11</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" ref="C40:L40" si="3">_xlfn.T.TEST($D$2:$D$33,C2:C33,1,1)</f>
+        <f t="shared" ref="C40:L40" si="14">_xlfn.T.TEST($D$2:$D$33,C2:C33,1,1)</f>
         <v>7.4256645036711553E-9</v>
       </c>
       <c r="D40" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.5446358684970724E-9</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>9.9077276452048205E-10</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.2094373650050248E-10</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.0303087822631762E-10</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1.9396435675642398E-9</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1.809059301615602E-9</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.9972303697483224E-10</v>
       </c>
       <c r="L40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>7.2754329750714912E-10</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -11628,47 +18298,47 @@
         <v>2.7092841834222007E-12</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ref="C41:L41" si="4">_xlfn.T.TEST($E$2:$E$33,C2:C33,1,1)</f>
+        <f t="shared" ref="C41:L41" si="15">_xlfn.T.TEST($E$2:$E$33,C2:C33,1,1)</f>
         <v>1.6125901178996374E-10</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>8.5446358684970724E-9</v>
       </c>
       <c r="E41" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2.6934761636472195E-7</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4.9504123453065834E-8</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>7.3643825572010833E-8</v>
       </c>
       <c r="I41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2.2791236816435893E-7</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1.5889860669548761E-7</v>
       </c>
       <c r="K41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6.419864332171204E-8</v>
       </c>
       <c r="L41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5.2888154382663168E-8</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -11677,47 +18347,47 @@
         <v>1.2481756991460114E-13</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" ref="C42:L42" si="5">_xlfn.T.TEST($F$2:$F$33,C2:C33,1,1)</f>
+        <f t="shared" ref="C42:L42" si="16">_xlfn.T.TEST($F$2:$F$33,C2:C33,1,1)</f>
         <v>1.5356525137349702E-11</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>9.9077276452048205E-10</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2.6934761636472195E-7</v>
       </c>
       <c r="F42" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2.9947770344906464E-7</v>
       </c>
       <c r="H42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4.8868942346652662E-7</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2.1438477344855869E-6</v>
       </c>
       <c r="J42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1.0522459780376203E-6</v>
       </c>
       <c r="K42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2.8702717486609507E-7</v>
       </c>
       <c r="L42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2.4237587969416511E-7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -11726,47 +18396,47 @@
         <v>4.928002260973339E-14</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ref="C43:L43" si="6">_xlfn.T.TEST($G$2:$G$33,C2:C33,1,1)</f>
+        <f t="shared" ref="C43:L43" si="17">_xlfn.T.TEST($G$2:$G$33,C2:C33,1,1)</f>
         <v>1.0087808369711849E-11</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>8.2094373650050248E-10</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>4.9504123453065834E-8</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2.9947770344906464E-7</v>
       </c>
       <c r="G43" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>8.6908872774147647E-5</v>
       </c>
       <c r="I43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>4.8396356443332304E-5</v>
       </c>
       <c r="J43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>8.2207304786998277E-6</v>
       </c>
       <c r="K43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1.7542216927586736E-6</v>
       </c>
       <c r="L43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1.346017118374811E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -11775,47 +18445,47 @@
         <v>2.2483544805620569E-14</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" ref="C44:L44" si="7">_xlfn.T.TEST($H$2:$H$33,C2:C33,1,1)</f>
+        <f t="shared" ref="C44:L44" si="18">_xlfn.T.TEST($H$2:$H$33,C2:C33,1,1)</f>
         <v>7.3614289764776833E-12</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>8.0303087822631762E-10</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>7.3643825572010833E-8</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>4.8868942346652662E-7</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>8.6908872774147647E-5</v>
       </c>
       <c r="H44" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>1.8047801180808424E-4</v>
       </c>
       <c r="J44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>7.4264341280939689E-6</v>
       </c>
       <c r="K44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>6.5457604184689495E-7</v>
       </c>
       <c r="L44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>3.3718906586286761E-7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -11824,47 +18494,47 @@
         <v>2.8448081805859374E-14</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" ref="C45:L45" si="8">_xlfn.T.TEST($I$2:$I$33,C2:C33,1,1)</f>
+        <f t="shared" ref="C45:L45" si="19">_xlfn.T.TEST($I$2:$I$33,C2:C33,1,1)</f>
         <v>1.3853700371831072E-11</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>1.9396435675642398E-9</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>2.2791236816435893E-7</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>2.1438477344855869E-6</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>4.8396356443332304E-5</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>1.8047801180808424E-4</v>
       </c>
       <c r="I45" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>4.6346300324628418E-6</v>
       </c>
       <c r="K45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>5.9659210805060481E-7</v>
       </c>
       <c r="L45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>1.3963010083959105E-7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -11873,47 +18543,47 @@
         <v>1.8142656146418835E-14</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" ref="C46:L46" si="9">_xlfn.T.TEST($J$2:$J$33,C2:C33,1,1)</f>
+        <f t="shared" ref="C46:L46" si="20">_xlfn.T.TEST($J$2:$J$33,C2:C33,1,1)</f>
         <v>1.0210975146730428E-11</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>1.809059301615602E-9</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>1.58898606695487E-7</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>1.0522459780376203E-6</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>8.2207304786998277E-6</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>7.4264341280939689E-6</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>4.6346300324628418E-6</v>
       </c>
       <c r="J46" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>3.6543475517849026E-3</v>
       </c>
       <c r="L46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>5.8895643303882824E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -11922,47 +18592,47 @@
         <v>9.2385172493066849E-15</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" ref="C47:L47" si="10">_xlfn.T.TEST($K$2:$K$33,C2:C33,1,1)</f>
+        <f t="shared" ref="C47:L47" si="21">_xlfn.T.TEST($K$2:$K$33,C2:C33,1,1)</f>
         <v>5.6738653830863118E-12</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>8.9972303697483224E-10</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>6.419864332171204E-8</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.8702717486609507E-7</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.7542216927586736E-6</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>6.5457604184689495E-7</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>5.9659210805060481E-7</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>3.6543475517849026E-3</v>
       </c>
       <c r="K47" s="2" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.7045637942662108E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -11971,43 +18641,43 @@
         <v>6.9908160403447111E-15</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" ref="C48:L48" si="11">_xlfn.T.TEST($L$2:$L$33,C2:C33,1,1)</f>
+        <f t="shared" ref="C48:L48" si="22">_xlfn.T.TEST($L$2:$L$33,C2:C33,1,1)</f>
         <v>4.9015910681938906E-12</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>7.2754329750714912E-10</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>5.2888154382662976E-8</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2.4237587969416511E-7</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.346017118374811E-6</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3.3718906586286761E-7</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.3963010083959105E-7</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>5.8895643303882824E-5</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.7045637942662108E-3</v>
       </c>
       <c r="L48" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12018,7 +18688,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C38 D38:D39 E38:E40 F38:F41 G38:G42 H38:H43 I38:I44 J38:J45 K38:K46 L38:L47">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
